--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,52 +1,331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784079B-1C90-4CBA-A141-6ABB97D59D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Quận Trà Vinh" sheetId="1" r:id="rId1"/>
+    <sheet name="Quận TP. Trà Vinh" sheetId="1" r:id="rId1"/>
     <sheet name="Loại đất" sheetId="2" r:id="rId2"/>
     <sheet name="Vị trí" sheetId="3" r:id="rId3"/>
     <sheet name="Diện tích" sheetId="4" r:id="rId4"/>
     <sheet name="Chiều sâu" sheetId="5" r:id="rId5"/>
     <sheet name="Phong thủy" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+  <si>
+    <t>Tên đường</t>
+  </si>
+  <si>
+    <t>Đoạn từ</t>
+  </si>
+  <si>
+    <t>Đoạn đến</t>
+  </si>
+  <si>
+    <t>Giá min</t>
+  </si>
+  <si>
+    <t>Giá max</t>
+  </si>
+  <si>
+    <t>Giá nhà nước</t>
+  </si>
+  <si>
+    <t>Hệ số min</t>
+  </si>
+  <si>
+    <t>Hệ số max</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Hệ số</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>Đất ở đô thị</t>
+  </si>
+  <si>
+    <t>Đất ở tại đô thị</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>Đất ở nông thôn</t>
+  </si>
+  <si>
+    <t>Đất ở tại nông thôn</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>Đất cây lâu năm</t>
+  </si>
+  <si>
+    <t>Đất trồng cây lâu năm</t>
+  </si>
+  <si>
+    <t>LUA</t>
+  </si>
+  <si>
+    <t>Đất trồng lúa</t>
+  </si>
+  <si>
+    <t>Đất chuyên trồng lúa nước</t>
+  </si>
+  <si>
+    <t>Độ rộng min</t>
+  </si>
+  <si>
+    <t>Độ rộng max</t>
+  </si>
+  <si>
+    <t>VT1</t>
+  </si>
+  <si>
+    <t>Vị trí 1</t>
+  </si>
+  <si>
+    <t>Mặt tiền đường &gt; 20m</t>
+  </si>
+  <si>
+    <t>VT2</t>
+  </si>
+  <si>
+    <t>Vị trí 2</t>
+  </si>
+  <si>
+    <t>Mặt tiền đường 12-20m</t>
+  </si>
+  <si>
+    <t>VT3</t>
+  </si>
+  <si>
+    <t>Vị trí 3</t>
+  </si>
+  <si>
+    <t>Mặt tiền đường 6-12m</t>
+  </si>
+  <si>
+    <t>VT4</t>
+  </si>
+  <si>
+    <t>Vị trí 4</t>
+  </si>
+  <si>
+    <t>Hẻm &lt; 6m</t>
+  </si>
+  <si>
+    <t>Diện tích min</t>
+  </si>
+  <si>
+    <t>Diện tích max</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>Dưới 50m²</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>50-100m²</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>100-200m²</t>
+  </si>
+  <si>
+    <t>DT4</t>
+  </si>
+  <si>
+    <t>Trên 200m²</t>
+  </si>
+  <si>
+    <t>Chiều sâu min</t>
+  </si>
+  <si>
+    <t>Chiều sâu max</t>
+  </si>
+  <si>
+    <t>CS1</t>
+  </si>
+  <si>
+    <t>0-20m</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>20-40m</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>40-60m</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>Trên 60m</t>
+  </si>
+  <si>
+    <t>PT1</t>
+  </si>
+  <si>
+    <t>Rất tốt</t>
+  </si>
+  <si>
+    <t>Hướng Đông Nam, thoáng mát</t>
+  </si>
+  <si>
+    <t>PT2</t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>Hướng Nam, Đông</t>
+  </si>
+  <si>
+    <t>PT3</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Các hướng khác</t>
+  </si>
+  <si>
+    <t>PT4</t>
+  </si>
+  <si>
+    <t>Không tốt</t>
+  </si>
+  <si>
+    <t>Hướng Tây, góc nhọn</t>
+  </si>
+  <si>
+    <t>Đường Phạm Thái Bường</t>
+  </si>
+  <si>
+    <t>Đường Điện Biên Phủ</t>
+  </si>
+  <si>
+    <t>Đường Độc Lập (bên trái)</t>
+  </si>
+  <si>
+    <t>Đường Độc Lập (bên phải)</t>
+  </si>
+  <si>
+    <t>Đường Hùng Vương</t>
+  </si>
+  <si>
+    <t>Vòng xoay Chợ Trà Vinh</t>
+  </si>
+  <si>
+    <t>Đường Phạm Hồng Thái</t>
+  </si>
+  <si>
+    <t>Đường Trần Phú</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Đáng</t>
+  </si>
+  <si>
+    <t>Đường Bạch Đằng</t>
+  </si>
+  <si>
+    <t>Đường Võ Thị Sáu</t>
+  </si>
+  <si>
+    <t>Đường Lê Lợi</t>
+  </si>
+  <si>
+    <t>Cầu Long Bình 1</t>
+  </si>
+  <si>
+    <t>Đường D5; Hết ranh thửa số 18, tờ bản đồ số 30, phường 5</t>
+  </si>
+  <si>
+    <t>Hết ranh Phường 5</t>
+  </si>
+  <si>
+    <t>Địa phương</t>
+  </si>
+  <si>
+    <t>Cầu Kè</t>
+  </si>
+  <si>
+    <t>Tiểu Cần</t>
+  </si>
+  <si>
+    <t>Trà Cú</t>
+  </si>
+  <si>
+    <t>Cầu Ngang</t>
+  </si>
+  <si>
+    <t>Phường Trà Vinh</t>
+  </si>
+  <si>
+    <t>Duyên Hải</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,18 +344,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,270 +716,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="4" width="20.796875" customWidth="1"/>
+    <col min="5" max="7" width="15.796875" customWidth="1"/>
+    <col min="8" max="9" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Tên đường</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Đoạn từ</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Đoạn đến</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Giá min</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Giá max</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Giá nhà nước</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Hệ số min</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Hệ số max</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Nguyễn Huệ</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Đầu đường</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Ngã tư Lê Lợi</v>
-      </c>
-      <c r="D2">
-        <v>50000000</v>
-      </c>
-      <c r="E2">
-        <v>80000000</v>
-      </c>
-      <c r="F2">
-        <v>45000000</v>
-      </c>
-      <c r="G2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Lê Lợi</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Nguyễn Huệ</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Trần Hưng Đạo</v>
-      </c>
-      <c r="D3">
-        <v>40000000</v>
-      </c>
-      <c r="E3">
-        <v>60000000</v>
-      </c>
-      <c r="F3">
-        <v>35000000</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Trần Hưng Đạo</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Đầu đường</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Cuối đường</v>
-      </c>
-      <c r="D4">
-        <v>30000000</v>
-      </c>
-      <c r="E4">
-        <v>45000000</v>
-      </c>
-      <c r="F4">
-        <v>28000000</v>
-      </c>
-      <c r="G4">
-        <v>0.9</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="3">
+        <v>247700</v>
+      </c>
+      <c r="F2" s="3">
+        <v>254400</v>
+      </c>
+      <c r="G2" s="5">
+        <v>36500</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="I2" s="5">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F3" s="3">
+        <v>190500</v>
+      </c>
+      <c r="G3" s="5">
+        <v>36500</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>126000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30800</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>75300</v>
+      </c>
+      <c r="G5" s="5">
+        <v>19500</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3">
+        <v>108500</v>
+      </c>
+      <c r="F6" s="3">
+        <v>121500</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3">
+        <v>108100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>122000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.32</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>122900</v>
+      </c>
+      <c r="G8" s="5">
+        <v>24000</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>55500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15120</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36200</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F11" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4800</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5.0999999999999996</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError sqref="B1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Hệ số</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Mô tả</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ODT</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Đất ở đô thị</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>Đất ở tại đô thị</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ONT</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Đất ở nông thôn</v>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
-      <c r="D3" t="str">
-        <v>Đất ở tại nông thôn</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CLN</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Đất cây lâu năm</v>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
-      <c r="D4" t="str">
-        <v>Đất trồng cây lâu năm</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>LUA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Đất trồng lúa</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="D5" t="str">
-        <v>Đất chuyên trồng lúa nước</v>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError sqref="A1:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="6" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Hệ số</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Mô tả</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Độ rộng min</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Độ rộng max</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>VT1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Vị trí 1</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>Mặt tiền đường &gt; 20m</v>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -673,18 +1205,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>VT2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Vị trí 2</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
-      <c r="D3" t="str">
-        <v>Mặt tiền đường 12-20m</v>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -693,18 +1225,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>VT3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Vị trí 3</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="D4" t="str">
-        <v>Mặt tiền đường 6-12m</v>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -713,18 +1245,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>VT4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Vị trí 4</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="D5" t="str">
-        <v>Hẻm &lt; 6m</v>
+      <c r="D5" t="s">
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -734,49 +1266,50 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError sqref="A1:F5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="5" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Hệ số</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Diện tích min</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Diện tích max</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>DT1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Dưới 50m²</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -788,12 +1321,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>DT2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>50-100m²</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -805,12 +1338,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>DT3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>100-200m²</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0.9</v>
@@ -822,12 +1355,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>DT4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Trên 200m²</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -840,49 +1373,50 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError sqref="A1:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="5" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Hệ số</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Chiều sâu min</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Chiều sâu max</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>CS1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0-20m</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -894,12 +1428,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>CS2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>20-40m</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0.9</v>
@@ -911,12 +1445,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CS3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>40-60m</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -928,12 +1462,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>CS4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Trên 60m</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0.7</v>
@@ -946,98 +1480,101 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError sqref="A1:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mã</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Hệ số</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Mô tả</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>PT1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Rất tốt</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1.2</v>
       </c>
-      <c r="D2" t="str">
-        <v>Hướng Đông Nam, thoáng mát</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>PT2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Tốt</v>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>1.1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Hướng Nam, Đông</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>PT3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Trung bình</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <v>Các hướng khác</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PT4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Không tốt</v>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>0.9</v>
       </c>
-      <c r="D5" t="str">
-        <v>Hướng Tây, góc nhọn</v>
+      <c r="D5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError sqref="A1:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>